--- a/data/pca/factorExposure/factorExposure_2017-06-06.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-06-06.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +717,85 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.02304738050474035</v>
+        <v>-0.01002447312505028</v>
       </c>
       <c r="C2">
-        <v>0.0082874667749373</v>
+        <v>0.04606574722647912</v>
       </c>
       <c r="D2">
-        <v>0.03285939064254025</v>
+        <v>-0.02999281584392706</v>
       </c>
       <c r="E2">
-        <v>0.003562900732648651</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0.03361501286614218</v>
+      </c>
+      <c r="F2">
+        <v>0.01083140672859541</v>
+      </c>
+      <c r="G2">
+        <v>0.09745619215335186</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.01737385189710591</v>
+        <v>-0.04484432227374927</v>
       </c>
       <c r="C3">
-        <v>-0.03395303152607634</v>
+        <v>0.09817638294660117</v>
       </c>
       <c r="D3">
-        <v>0.09607610893953919</v>
+        <v>-0.01651876274576212</v>
       </c>
       <c r="E3">
-        <v>0.0148065620905497</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>-0.0960247021331072</v>
+      </c>
+      <c r="F3">
+        <v>0.003728765678579266</v>
+      </c>
+      <c r="G3">
+        <v>0.1831905396313191</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.02454942378688011</v>
+        <v>-0.05540515967508993</v>
       </c>
       <c r="C4">
-        <v>-0.006107803324941982</v>
+        <v>0.06875713000676494</v>
       </c>
       <c r="D4">
-        <v>0.08716356205286499</v>
+        <v>-0.02444807165325406</v>
       </c>
       <c r="E4">
-        <v>-0.02541226511802816</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-0.02682061173278006</v>
+      </c>
+      <c r="F4">
+        <v>0.01280593901441936</v>
+      </c>
+      <c r="G4">
+        <v>0.0955842900460999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,163 +809,223 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.01392082588375747</v>
+        <v>-0.03698759963868879</v>
       </c>
       <c r="C6">
-        <v>0.008551752738024249</v>
+        <v>0.05309791715151386</v>
       </c>
       <c r="D6">
-        <v>0.0812566433370774</v>
+        <v>-0.0167974531831432</v>
       </c>
       <c r="E6">
-        <v>-0.01653611794812233</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.03098315609416536</v>
+      </c>
+      <c r="F6">
+        <v>0.01139172880369905</v>
+      </c>
+      <c r="G6">
+        <v>0.07567328174694488</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.01150472551794213</v>
+        <v>-0.02043845843589887</v>
       </c>
       <c r="C7">
-        <v>-0.002476410395936634</v>
+        <v>0.04216649292942763</v>
       </c>
       <c r="D7">
-        <v>0.04432016912598053</v>
+        <v>-0.01345312965876426</v>
       </c>
       <c r="E7">
-        <v>-0.06382276857838855</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.003629527590597613</v>
+      </c>
+      <c r="F7">
+        <v>-0.003700708164527377</v>
+      </c>
+      <c r="G7">
+        <v>0.1282535087882241</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.0005509305229011351</v>
+        <v>-0.003494229738568408</v>
       </c>
       <c r="C8">
-        <v>0.001197584198718206</v>
+        <v>0.02535928250785392</v>
       </c>
       <c r="D8">
-        <v>0.005399169565167138</v>
+        <v>-0.004002096567205266</v>
       </c>
       <c r="E8">
-        <v>-0.00772948504351354</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.02348927861069968</v>
+      </c>
+      <c r="F8">
+        <v>0.007257586660084085</v>
+      </c>
+      <c r="G8">
+        <v>0.06760975817198073</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.01679041961965569</v>
+        <v>-0.03287329607292739</v>
       </c>
       <c r="C9">
-        <v>-0.008801450830170077</v>
+        <v>0.04975776978374741</v>
       </c>
       <c r="D9">
-        <v>0.06395576094629608</v>
+        <v>-0.01668438657803552</v>
       </c>
       <c r="E9">
-        <v>-0.01395558938066511</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.01706619955332046</v>
+      </c>
+      <c r="F9">
+        <v>0.01043556332382586</v>
+      </c>
+      <c r="G9">
+        <v>0.0957267293348058</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.0284330228666075</v>
+        <v>-0.09901992163783491</v>
       </c>
       <c r="C10">
-        <v>-0.1768585765978938</v>
+        <v>-0.1804113959523695</v>
       </c>
       <c r="D10">
-        <v>-0.09080118616120747</v>
+        <v>0.01446801547149226</v>
       </c>
       <c r="E10">
-        <v>0.02153969302977946</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>-0.02074103775446523</v>
+      </c>
+      <c r="F10">
+        <v>-0.01989325259008417</v>
+      </c>
+      <c r="G10">
+        <v>0.06067831982485086</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.0007292317397885115</v>
+        <v>-0.03460987798365373</v>
       </c>
       <c r="C11">
-        <v>0.0008562408087715697</v>
+        <v>0.05535855882558815</v>
       </c>
       <c r="D11">
-        <v>0.05764110681535812</v>
+        <v>-0.002300766953747078</v>
       </c>
       <c r="E11">
-        <v>-0.006308631608464813</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.009851141826029055</v>
+      </c>
+      <c r="F11">
+        <v>0.02150790675937577</v>
+      </c>
+      <c r="G11">
+        <v>0.08440036322999088</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.005499701247320792</v>
+        <v>-0.03634661902100542</v>
       </c>
       <c r="C12">
-        <v>-0.0004110671720033517</v>
+        <v>0.04945347845753081</v>
       </c>
       <c r="D12">
-        <v>0.05172078989637727</v>
+        <v>-0.006170224228387961</v>
       </c>
       <c r="E12">
-        <v>-0.01606011583624538</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>-0.002539726977006297</v>
+      </c>
+      <c r="F12">
+        <v>0.001772468214629605</v>
+      </c>
+      <c r="G12">
+        <v>0.07870988170356043</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.02447145692656413</v>
+        <v>-0.01545338632958162</v>
       </c>
       <c r="C13">
-        <v>-0.01346554002796073</v>
+        <v>0.04126706267596508</v>
       </c>
       <c r="D13">
-        <v>0.03809311569272071</v>
+        <v>-0.02641452544994705</v>
       </c>
       <c r="E13">
-        <v>0.0008341463049290361</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.03128411981640659</v>
+      </c>
+      <c r="F13">
+        <v>0.00759856018846782</v>
+      </c>
+      <c r="G13">
+        <v>0.1218211340071645</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.008978451851990546</v>
+        <v>-0.008484867013776851</v>
       </c>
       <c r="C14">
-        <v>-0.01051985519505911</v>
+        <v>0.02968447558088091</v>
       </c>
       <c r="D14">
-        <v>0.02023291440343719</v>
+        <v>-0.009953042043141579</v>
       </c>
       <c r="E14">
-        <v>-0.008213905052100229</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>-0.002728100006878072</v>
+      </c>
+      <c r="F14">
+        <v>-0.008491945837142802</v>
+      </c>
+      <c r="G14">
+        <v>0.09922827617703806</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -949,27 +1039,39 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.001569315294253681</v>
+        <v>-0.03314425926354435</v>
       </c>
       <c r="C16">
-        <v>-0.005226112183990133</v>
+        <v>0.04874230907150195</v>
       </c>
       <c r="D16">
-        <v>0.05229022057586028</v>
+        <v>-0.001884245868540039</v>
       </c>
       <c r="E16">
-        <v>-0.01584844738847424</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.009496189271559518</v>
+      </c>
+      <c r="F16">
+        <v>0.002710026583855745</v>
+      </c>
+      <c r="G16">
+        <v>0.08706318519906187</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1085,16 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1108,200 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.01585358270204064</v>
+        <v>-0.02146164672469416</v>
       </c>
       <c r="C19">
-        <v>-0.01600201524132226</v>
+        <v>0.05483668726786808</v>
       </c>
       <c r="D19">
-        <v>0.05012565019596043</v>
+        <v>-0.01901611726911988</v>
       </c>
       <c r="E19">
-        <v>-0.01601804967182287</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>-0.06858894426840369</v>
+      </c>
+      <c r="F19">
+        <v>0.02466051604281117</v>
+      </c>
+      <c r="G19">
+        <v>0.1327664064379062</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.01142211371759353</v>
+        <v>-0.01480647902329647</v>
       </c>
       <c r="C20">
-        <v>-0.004082156057605112</v>
+        <v>0.04009831022155401</v>
       </c>
       <c r="D20">
-        <v>0.03583676665323843</v>
+        <v>-0.0141261356950709</v>
       </c>
       <c r="E20">
-        <v>0.006776226140756317</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.0298065175155989</v>
+      </c>
+      <c r="F20">
+        <v>-0.01009856295459395</v>
+      </c>
+      <c r="G20">
+        <v>0.1066826997487046</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.01585915675965096</v>
+        <v>-0.01229206434630424</v>
       </c>
       <c r="C21">
-        <v>-0.01304933093501957</v>
+        <v>0.04065281666179773</v>
       </c>
       <c r="D21">
-        <v>0.03815988757349298</v>
+        <v>-0.01868109854809363</v>
       </c>
       <c r="E21">
-        <v>-0.01108165582403854</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.04239298424000833</v>
+      </c>
+      <c r="F21">
+        <v>0.002664444481119642</v>
+      </c>
+      <c r="G21">
+        <v>0.1304323439446041</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>0.0005674440340311819</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.0001454950659185727</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>-0.0002746143982186268</v>
       </c>
       <c r="E22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>-0.0009535148945297229</v>
+      </c>
+      <c r="F22">
+        <v>0.0002749032037685508</v>
+      </c>
+      <c r="G22">
+        <v>0.002204682656088988</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>0.000571784081467798</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.0001451152018840066</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>-0.0002747460240890065</v>
       </c>
       <c r="E23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>-0.0009593288847555933</v>
+      </c>
+      <c r="F23">
+        <v>0.0002735787462756843</v>
+      </c>
+      <c r="G23">
+        <v>0.002216045000076594</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.004022507008006105</v>
+        <v>-0.02811591510059783</v>
       </c>
       <c r="C24">
-        <v>0.0072707669733759</v>
+        <v>0.05185227750890623</v>
       </c>
       <c r="D24">
-        <v>0.05097327262314351</v>
+        <v>-0.007131939219032817</v>
       </c>
       <c r="E24">
-        <v>-0.01374884957021511</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>-0.005498600180471893</v>
+      </c>
+      <c r="F24">
+        <v>0.01387111117680454</v>
+      </c>
+      <c r="G24">
+        <v>0.0858414772767325</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.01244176966738371</v>
+        <v>-0.04294021460047555</v>
       </c>
       <c r="C25">
-        <v>-0.009492052427380986</v>
+        <v>0.05967491151405584</v>
       </c>
       <c r="D25">
-        <v>0.05889506147932545</v>
+        <v>-0.01108999141591393</v>
       </c>
       <c r="E25">
-        <v>-0.01530267935235026</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.001563145258378003</v>
+      </c>
+      <c r="F25">
+        <v>0.007233924895056872</v>
+      </c>
+      <c r="G25">
+        <v>0.09577350886094398</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.02312392592951196</v>
+        <v>-0.01388186793698134</v>
       </c>
       <c r="C26">
-        <v>-0.003710507181278545</v>
+        <v>0.01214310584377357</v>
       </c>
       <c r="D26">
-        <v>0.001691513661127339</v>
+        <v>-0.02410682320264789</v>
       </c>
       <c r="E26">
-        <v>-0.009225645559082224</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.007226427566361179</v>
+      </c>
+      <c r="F26">
+        <v>-0.00775673708165519</v>
+      </c>
+      <c r="G26">
+        <v>0.08011136528496141</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,129 +1315,177 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.05375603777217414</v>
+        <v>-0.1263845211280134</v>
       </c>
       <c r="C28">
-        <v>-0.2469112448506631</v>
+        <v>-0.2361458143481377</v>
       </c>
       <c r="D28">
-        <v>-0.1181605361053871</v>
+        <v>0.005346775327487325</v>
       </c>
       <c r="E28">
-        <v>-0.0001531423527889947</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>-0.007468456350524347</v>
+      </c>
+      <c r="F28">
+        <v>-0.01416494965860166</v>
+      </c>
+      <c r="G28">
+        <v>0.05741970785692325</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.009455275127670493</v>
+        <v>-0.009560203393681766</v>
       </c>
       <c r="C29">
-        <v>-0.01462513948873736</v>
+        <v>0.0232989752078484</v>
       </c>
       <c r="D29">
-        <v>0.01931837661861464</v>
+        <v>-0.008947787667027736</v>
       </c>
       <c r="E29">
-        <v>-0.00509036295535034</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>-0.00185556043496464</v>
+      </c>
+      <c r="F29">
+        <v>-0.01780953467364241</v>
+      </c>
+      <c r="G29">
+        <v>0.0925707088431847</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.02398886370185472</v>
+        <v>-0.04123621901855825</v>
       </c>
       <c r="C30">
-        <v>0.008635321367270327</v>
+        <v>0.07081023870552318</v>
       </c>
       <c r="D30">
-        <v>0.1006804482983617</v>
+        <v>-0.02888197321295368</v>
       </c>
       <c r="E30">
-        <v>0.02828166033999608</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.05298660465827033</v>
+      </c>
+      <c r="F30">
+        <v>0.04758330936113646</v>
+      </c>
+      <c r="G30">
+        <v>0.106851162970841</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.01090721743620193</v>
+        <v>-0.05283370836523776</v>
       </c>
       <c r="C31">
-        <v>-0.03257188069830363</v>
+        <v>0.03804466214095143</v>
       </c>
       <c r="D31">
-        <v>0.03900221833038068</v>
+        <v>-0.003824923467038918</v>
       </c>
       <c r="E31">
-        <v>-0.01004393491677517</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.000978077662835879</v>
+      </c>
+      <c r="F31">
+        <v>-0.0393785770959752</v>
+      </c>
+      <c r="G31">
+        <v>0.09257373899290676</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.004943968714692487</v>
+        <v>-0.001433498344194319</v>
       </c>
       <c r="C32">
-        <v>-0.01764299890818719</v>
+        <v>0.02532400419975993</v>
       </c>
       <c r="D32">
-        <v>0.008013715559147242</v>
+        <v>0.00337110663616346</v>
       </c>
       <c r="E32">
-        <v>-0.06142016458765366</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.0202571840316998</v>
+      </c>
+      <c r="F32">
+        <v>0.03977891220692967</v>
+      </c>
+      <c r="G32">
+        <v>0.09424062342221524</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.01480689894590644</v>
+        <v>-0.02762904755156209</v>
       </c>
       <c r="C33">
-        <v>-0.01838624813346897</v>
+        <v>0.05098043619685786</v>
       </c>
       <c r="D33">
-        <v>0.04649483228302369</v>
+        <v>-0.01577729915771945</v>
       </c>
       <c r="E33">
-        <v>0.01599673220280607</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.03608075864319681</v>
+      </c>
+      <c r="F33">
+        <v>0.01817957448516764</v>
+      </c>
+      <c r="G33">
+        <v>0.1435067165361033</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.00333098825681401</v>
+        <v>-0.04041383951762038</v>
       </c>
       <c r="C34">
-        <v>-0.01336693533818412</v>
+        <v>0.06218153824438374</v>
       </c>
       <c r="D34">
-        <v>0.05761227775785009</v>
+        <v>0.004769172214337126</v>
       </c>
       <c r="E34">
-        <v>-0.02014592163153439</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.0005701342141709674</v>
+      </c>
+      <c r="F34">
+        <v>0.01980444554129622</v>
+      </c>
+      <c r="G34">
+        <v>0.0928536205543658</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1289,27 +1499,39 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01348772726556433</v>
+        <v>-0.01591420683744075</v>
       </c>
       <c r="C36">
-        <v>-0.0150877886210309</v>
+        <v>0.009791739050929827</v>
       </c>
       <c r="D36">
-        <v>0.006956571847884515</v>
+        <v>-0.01237006333958936</v>
       </c>
       <c r="E36">
-        <v>-0.008451141006009074</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.004622861066959884</v>
+      </c>
+      <c r="F36">
+        <v>-0.006547420911458189</v>
+      </c>
+      <c r="G36">
+        <v>0.08581170161425052</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,129 +1545,177 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.001489622706740419</v>
+        <v>-0.03191788100129936</v>
       </c>
       <c r="C38">
-        <v>-0.03012476048111826</v>
+        <v>0.03244884678160008</v>
       </c>
       <c r="D38">
-        <v>0.05514056723017399</v>
+        <v>0.007454578322550544</v>
       </c>
       <c r="E38">
-        <v>-0.01704216702213085</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.003317721594593382</v>
+      </c>
+      <c r="F38">
+        <v>-0.01875284872690731</v>
+      </c>
+      <c r="G38">
+        <v>0.08231986423574013</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.003524551171666261</v>
+        <v>-0.03624055177934174</v>
       </c>
       <c r="C39">
-        <v>0.02966570425278777</v>
+        <v>0.08236501375841475</v>
       </c>
       <c r="D39">
-        <v>0.1054176268521013</v>
+        <v>-0.01142361926188997</v>
       </c>
       <c r="E39">
-        <v>-0.00465160517799641</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.02142754942914626</v>
+      </c>
+      <c r="F39">
+        <v>0.02466449142423394</v>
+      </c>
+      <c r="G39">
+        <v>0.0845262314758255</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01229791579160715</v>
+        <v>-0.0150463925719737</v>
       </c>
       <c r="C40">
-        <v>-0.008178833818138106</v>
+        <v>0.04338447009331738</v>
       </c>
       <c r="D40">
-        <v>0.04334644766323453</v>
+        <v>-0.01477832648550589</v>
       </c>
       <c r="E40">
-        <v>-0.01909502870260754</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.02039085242339243</v>
+      </c>
+      <c r="F40">
+        <v>-0.01616156800090752</v>
+      </c>
+      <c r="G40">
+        <v>0.1221348816465107</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.007044388363159769</v>
+        <v>-0.02014591391894519</v>
       </c>
       <c r="C41">
-        <v>-0.02058789670874474</v>
+        <v>0.002300498271436768</v>
       </c>
       <c r="D41">
-        <v>-0.009922947107236738</v>
+        <v>-0.004401316931784991</v>
       </c>
       <c r="E41">
-        <v>-0.003669348088601482</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>-0.003228880863749202</v>
+      </c>
+      <c r="F41">
+        <v>-0.01332650007760163</v>
+      </c>
+      <c r="G41">
+        <v>0.07410345851481927</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>-0.08871884023872723</v>
+        <v>-0.008833633721980053</v>
       </c>
       <c r="C42">
-        <v>0.04281015194535683</v>
+        <v>0.03509969477176067</v>
       </c>
       <c r="D42">
-        <v>0.1733118349990184</v>
+        <v>-0.09075510561105829</v>
       </c>
       <c r="E42">
-        <v>0.4556545082422541</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>-0.0188640552843716</v>
+      </c>
+      <c r="F42">
+        <v>-0.03977917348158942</v>
+      </c>
+      <c r="G42">
+        <v>-0.1211950733968902</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.008657076433094773</v>
+        <v>-0.03397226833449825</v>
       </c>
       <c r="C43">
-        <v>-0.02577093444953462</v>
+        <v>0.01802370395514335</v>
       </c>
       <c r="D43">
-        <v>-0.006321396594004102</v>
+        <v>-0.006097171959780366</v>
       </c>
       <c r="E43">
-        <v>-0.00347032091223266</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.01695723227169852</v>
+      </c>
+      <c r="F43">
+        <v>-0.002971508706999478</v>
+      </c>
+      <c r="G43">
+        <v>0.1082506003488696</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.003468214524488613</v>
+        <v>-0.01251975169019657</v>
       </c>
       <c r="C44">
-        <v>-0.0006877082629649813</v>
+        <v>0.05966794834472907</v>
       </c>
       <c r="D44">
-        <v>0.05480830013788782</v>
+        <v>-0.006710684208602367</v>
       </c>
       <c r="E44">
-        <v>-0.01924512484156001</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.01850507156708561</v>
+      </c>
+      <c r="F44">
+        <v>-0.008788103711899687</v>
+      </c>
+      <c r="G44">
+        <v>0.1016284632183372</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1729,85 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.01139311942647781</v>
+        <v>-0.007982625778702724</v>
       </c>
       <c r="C46">
-        <v>-0.008741888152641942</v>
+        <v>0.01831252548242219</v>
       </c>
       <c r="D46">
-        <v>0.00629921992367242</v>
+        <v>-0.01270765238363632</v>
       </c>
       <c r="E46">
-        <v>0.002782625050769183</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>-0.001983017238342947</v>
+      </c>
+      <c r="F46">
+        <v>-0.01690989701191608</v>
+      </c>
+      <c r="G46">
+        <v>0.09702653164534943</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.005492069564965514</v>
+        <v>-0.07705857693358843</v>
       </c>
       <c r="C47">
-        <v>-0.03948057239858035</v>
+        <v>0.06734818261660426</v>
       </c>
       <c r="D47">
-        <v>0.07513908488064783</v>
+        <v>0.005106096634765338</v>
       </c>
       <c r="E47">
-        <v>-0.01068760261854858</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.005898465972589105</v>
+      </c>
+      <c r="F47">
+        <v>-0.05476359570893022</v>
+      </c>
+      <c r="G47">
+        <v>0.08169814591708645</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.004825190948675355</v>
+        <v>-0.01942035346627717</v>
       </c>
       <c r="C48">
-        <v>-0.01958229682898273</v>
+        <v>0.01285970022627406</v>
       </c>
       <c r="D48">
-        <v>0.01843426617744561</v>
+        <v>-0.001978503751670625</v>
       </c>
       <c r="E48">
-        <v>-0.002031329130628484</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>-0.002369121902661411</v>
+      </c>
+      <c r="F48">
+        <v>-0.01899234800379233</v>
+      </c>
+      <c r="G48">
+        <v>0.0878619662175892</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1821,62 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.007974144498325168</v>
+        <v>-0.07468375997713439</v>
       </c>
       <c r="C50">
-        <v>-0.04357582137205219</v>
+        <v>0.07191282437510185</v>
       </c>
       <c r="D50">
-        <v>0.07347113434280761</v>
+        <v>0.002454693324293404</v>
       </c>
       <c r="E50">
-        <v>-0.03178345307000598</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.005729106423292708</v>
+      </c>
+      <c r="F50">
+        <v>-0.05574544084179626</v>
+      </c>
+      <c r="G50">
+        <v>0.09319677443068056</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.008082709398356843</v>
+        <v>-0.01455638082001505</v>
       </c>
       <c r="C51">
-        <v>-0.01140690093202709</v>
+        <v>0.0373148602836376</v>
       </c>
       <c r="D51">
-        <v>0.01999741982568566</v>
+        <v>-0.01045636493069659</v>
       </c>
       <c r="E51">
-        <v>-0.007016745252843684</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-0.01938989786136909</v>
+      </c>
+      <c r="F51">
+        <v>0.02360023314239139</v>
+      </c>
+      <c r="G51">
+        <v>0.1201450508073453</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,163 +1890,223 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.009196939820819643</v>
+        <v>-0.08137098196529245</v>
       </c>
       <c r="C53">
-        <v>-0.04420706169778567</v>
+        <v>0.08530687865614484</v>
       </c>
       <c r="D53">
-        <v>0.1285559519748326</v>
+        <v>0.003586223937582067</v>
       </c>
       <c r="E53">
-        <v>-0.01980405989434695</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.02349196006037207</v>
+      </c>
+      <c r="F53">
+        <v>-0.06640359256806175</v>
+      </c>
+      <c r="G53">
+        <v>0.07984655422530319</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.002770518730473123</v>
+        <v>-0.02997444793963946</v>
       </c>
       <c r="C54">
-        <v>-0.03189553885278034</v>
+        <v>0.01682075978458139</v>
       </c>
       <c r="D54">
-        <v>0.0008965198751026376</v>
+        <v>0.001338710686915915</v>
       </c>
       <c r="E54">
-        <v>0.003062684581636967</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.01209816757260431</v>
+      </c>
+      <c r="F54">
+        <v>-0.0004063288186063623</v>
+      </c>
+      <c r="G54">
+        <v>0.09694236847172853</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.004947743035486303</v>
+        <v>-0.07175809866111479</v>
       </c>
       <c r="C55">
-        <v>-0.02976140734151214</v>
+        <v>0.06939535342052844</v>
       </c>
       <c r="D55">
-        <v>0.1043751720915492</v>
+        <v>0.005122273327310881</v>
       </c>
       <c r="E55">
-        <v>-0.007727249976094884</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.02107733133244013</v>
+      </c>
+      <c r="F55">
+        <v>-0.06280234623430381</v>
+      </c>
+      <c r="G55">
+        <v>0.0576065176898656</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.008529666621390047</v>
+        <v>-0.1371921551645226</v>
       </c>
       <c r="C56">
-        <v>-0.06481428530843708</v>
+        <v>0.1087690743678468</v>
       </c>
       <c r="D56">
-        <v>0.1578040405849295</v>
+        <v>0.01266704300944442</v>
       </c>
       <c r="E56">
-        <v>-0.01332745331045276</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.02934492943034207</v>
+      </c>
+      <c r="F56">
+        <v>-0.08161919203755383</v>
+      </c>
+      <c r="G56">
+        <v>0.02988989872993046</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>-0.02387911750638848</v>
+        <v>-0.006390306044188894</v>
       </c>
       <c r="C57">
-        <v>-0.001671067697330796</v>
+        <v>0.00889827991375337</v>
       </c>
       <c r="D57">
-        <v>0.04372413397149355</v>
+        <v>-0.02351280175258444</v>
       </c>
       <c r="E57">
-        <v>0.008759676269286771</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>-0.02539920004685216</v>
+      </c>
+      <c r="F57">
+        <v>0.01135140311364213</v>
+      </c>
+      <c r="G57">
+        <v>0.02925965336074722</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.0145496586244164</v>
+        <v>-0.05491825207246226</v>
       </c>
       <c r="C58">
-        <v>-0.0543147397786409</v>
+        <v>0.05334903292516627</v>
       </c>
       <c r="D58">
-        <v>0.1815066018435558</v>
+        <v>-0.02342481676711539</v>
       </c>
       <c r="E58">
-        <v>0.5745101456957579</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.9391786165875546</v>
+      </c>
+      <c r="F58">
+        <v>-0.2067949018702863</v>
+      </c>
+      <c r="G58">
+        <v>-0.1592507103415822</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.05417709315669854</v>
+        <v>-0.1608096456882291</v>
       </c>
       <c r="C59">
-        <v>-0.2733090378052391</v>
+        <v>-0.202520720966045</v>
       </c>
       <c r="D59">
-        <v>-0.1035598365212536</v>
+        <v>0.01090613776576352</v>
       </c>
       <c r="E59">
-        <v>-0.01506436035420874</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.01808847858942632</v>
+      </c>
+      <c r="F59">
+        <v>0.003987868735361731</v>
+      </c>
+      <c r="G59">
+        <v>0.04295841378862762</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.04918160444393297</v>
+        <v>-0.2862571003479463</v>
       </c>
       <c r="C60">
-        <v>-0.1505403871043734</v>
+        <v>0.1081399425406811</v>
       </c>
       <c r="D60">
-        <v>0.1369522224237594</v>
+        <v>-0.01171957820239988</v>
       </c>
       <c r="E60">
-        <v>-0.07602883182484579</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.01541919282539998</v>
+      </c>
+      <c r="F60">
+        <v>0.3448875584312237</v>
+      </c>
+      <c r="G60">
+        <v>-0.1452952452991408</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.003370207169054035</v>
+        <v>-0.03797860393856456</v>
       </c>
       <c r="C61">
-        <v>0.0007223663146111337</v>
+        <v>0.06785735547794174</v>
       </c>
       <c r="D61">
-        <v>0.07978598754364646</v>
+        <v>-0.005210472098795394</v>
       </c>
       <c r="E61">
-        <v>-0.02029188717626794</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.01403196535620402</v>
+      </c>
+      <c r="F61">
+        <v>0.01517937860412163</v>
+      </c>
+      <c r="G61">
+        <v>0.08922736106795458</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2120,177 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.008573309543768504</v>
+        <v>-0.01494676415764118</v>
       </c>
       <c r="C63">
-        <v>-0.004781227586169612</v>
+        <v>0.03055042263310945</v>
       </c>
       <c r="D63">
-        <v>0.02633417655533021</v>
+        <v>-0.008577059466284134</v>
       </c>
       <c r="E63">
-        <v>-0.0221240278457964</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>-0.002080190606785691</v>
+      </c>
+      <c r="F63">
+        <v>-0.01581415322742267</v>
+      </c>
+      <c r="G63">
+        <v>0.09087058265881301</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.009956691000915575</v>
+        <v>-0.04742928176439717</v>
       </c>
       <c r="C64">
-        <v>-0.02315572209487502</v>
+        <v>0.04777215323939238</v>
       </c>
       <c r="D64">
-        <v>0.06184042060979864</v>
+        <v>-0.006173450494052037</v>
       </c>
       <c r="E64">
-        <v>-0.004915184312430095</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>-0.0001780410118207083</v>
+      </c>
+      <c r="F64">
+        <v>0.006068981238320581</v>
+      </c>
+      <c r="G64">
+        <v>0.08671200766165098</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.01720295072994583</v>
+        <v>-0.07477020070636917</v>
       </c>
       <c r="C65">
-        <v>0.00481304323304595</v>
+        <v>0.06017666096862728</v>
       </c>
       <c r="D65">
-        <v>0.1014167683890133</v>
+        <v>-0.0163582934874884</v>
       </c>
       <c r="E65">
-        <v>-0.02700705009944078</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.03154995084718721</v>
+      </c>
+      <c r="F65">
+        <v>0.03175621708738376</v>
+      </c>
+      <c r="G65">
+        <v>0.03139133482291456</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.003929614033236624</v>
+        <v>-0.05122090248364323</v>
       </c>
       <c r="C66">
-        <v>0.02720480308350087</v>
+        <v>0.1108830038651503</v>
       </c>
       <c r="D66">
-        <v>0.1379282299759308</v>
+        <v>-0.01145943785542864</v>
       </c>
       <c r="E66">
-        <v>-0.01325330605381873</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.03051220201622974</v>
+      </c>
+      <c r="F66">
+        <v>0.03650548006486597</v>
+      </c>
+      <c r="G66">
+        <v>0.1009484851277779</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.00566204404858048</v>
+        <v>-0.05492312688795127</v>
       </c>
       <c r="C67">
-        <v>-0.0490288711953516</v>
+        <v>0.03585195734631635</v>
       </c>
       <c r="D67">
-        <v>0.07098180462839737</v>
+        <v>0.005861428309336923</v>
       </c>
       <c r="E67">
-        <v>-0.01977778489089036</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.003304835865320085</v>
+      </c>
+      <c r="F67">
+        <v>-0.01746606990674717</v>
+      </c>
+      <c r="G67">
+        <v>0.07396432034480953</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.06851800815255416</v>
+        <v>-0.1542618500474167</v>
       </c>
       <c r="C68">
-        <v>-0.2495017682681312</v>
+        <v>-0.26871715619228</v>
       </c>
       <c r="D68">
-        <v>-0.146424452159098</v>
+        <v>-0.006559537249789897</v>
       </c>
       <c r="E68">
-        <v>0.03014253091553869</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>-0.01244461528178487</v>
+      </c>
+      <c r="F68">
+        <v>-0.03210502600976066</v>
+      </c>
+      <c r="G68">
+        <v>0.03120971493661117</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.000929614111642619</v>
+        <v>-0.08120839666293898</v>
       </c>
       <c r="C69">
-        <v>-0.0331123221026952</v>
+        <v>0.0706137360097856</v>
       </c>
       <c r="D69">
-        <v>0.07780604050118298</v>
+        <v>0.008966548661052906</v>
       </c>
       <c r="E69">
-        <v>-0.02458118703001005</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.02222232380831631</v>
+      </c>
+      <c r="F69">
+        <v>-0.03723484113883511</v>
+      </c>
+      <c r="G69">
+        <v>0.09128811413912848</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,146 +2304,200 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.0521217742351108</v>
+        <v>-0.1410590121110995</v>
       </c>
       <c r="C71">
-        <v>-0.21700057740851</v>
+        <v>-0.226898331489341</v>
       </c>
       <c r="D71">
-        <v>-0.09930626773737566</v>
+        <v>0.002013876489627608</v>
       </c>
       <c r="E71">
-        <v>0.02050296801650942</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>-0.03418491482946973</v>
+      </c>
+      <c r="F71">
+        <v>-0.01736970514137182</v>
+      </c>
+      <c r="G71">
+        <v>0.06751503241363042</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.001258880184993454</v>
+        <v>-0.08471872674773573</v>
       </c>
       <c r="C72">
-        <v>-0.02313222185202755</v>
+        <v>0.07438654009096791</v>
       </c>
       <c r="D72">
-        <v>0.110991774989878</v>
+        <v>0.008364619825595854</v>
       </c>
       <c r="E72">
-        <v>-0.03888381268710873</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.005153776961214636</v>
+      </c>
+      <c r="F72">
+        <v>0.03766289459336677</v>
+      </c>
+      <c r="G72">
+        <v>0.07989250455980319</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.06254819395546747</v>
+        <v>-0.3749821031863588</v>
       </c>
       <c r="C73">
-        <v>-0.1642041065714284</v>
+        <v>0.1182703823659247</v>
       </c>
       <c r="D73">
-        <v>0.2469282259717073</v>
+        <v>-0.01969456367857792</v>
       </c>
       <c r="E73">
-        <v>-0.05935570696946599</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.04916093390357174</v>
+      </c>
+      <c r="F73">
+        <v>0.5761816338490034</v>
+      </c>
+      <c r="G73">
+        <v>-0.2679671919970059</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.005869113810539244</v>
+        <v>-0.104614143676569</v>
       </c>
       <c r="C74">
-        <v>-0.05331377919605108</v>
+        <v>0.1103255072295752</v>
       </c>
       <c r="D74">
-        <v>0.1736692644227376</v>
+        <v>0.00936003577931945</v>
       </c>
       <c r="E74">
-        <v>-0.01124969200927971</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.004703622609786425</v>
+      </c>
+      <c r="F74">
+        <v>-0.06811247087449096</v>
+      </c>
+      <c r="G74">
+        <v>0.07423172289784287</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.01698584116047045</v>
+        <v>-0.2488567336659974</v>
       </c>
       <c r="C75">
-        <v>-0.1361854288628492</v>
+        <v>0.1513904890255953</v>
       </c>
       <c r="D75">
-        <v>0.2987702659422969</v>
+        <v>0.03110461511282819</v>
       </c>
       <c r="E75">
-        <v>-0.01199612160253461</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.05291437869236607</v>
+      </c>
+      <c r="F75">
+        <v>-0.1794981742230919</v>
+      </c>
+      <c r="G75">
+        <v>-0.04283442735785273</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.004913429994466392</v>
+        <v>-0.120471930802109</v>
       </c>
       <c r="C76">
-        <v>-0.08508817778158265</v>
+        <v>0.1104856708298551</v>
       </c>
       <c r="D76">
-        <v>0.2229216168095974</v>
+        <v>0.01905304512529302</v>
       </c>
       <c r="E76">
-        <v>-0.0447710688833015</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.02706081961196621</v>
+      </c>
+      <c r="F76">
+        <v>-0.1126155055851527</v>
+      </c>
+      <c r="G76">
+        <v>0.05003116661123674</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.01518944988304017</v>
+        <v>-0.06805511028938456</v>
       </c>
       <c r="C77">
-        <v>-0.01582506777603378</v>
+        <v>0.06310131703997254</v>
       </c>
       <c r="D77">
-        <v>0.06912123596546253</v>
+        <v>-0.01154371168413883</v>
       </c>
       <c r="E77">
-        <v>0.0009133243149765844</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>-0.04250352843229765</v>
+      </c>
+      <c r="F77">
+        <v>0.01099841562824545</v>
+      </c>
+      <c r="G77">
+        <v>0.06366104417736422</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.005643541226069025</v>
+        <v>-0.04220118973916117</v>
       </c>
       <c r="C78">
-        <v>-0.008534654414325177</v>
+        <v>0.05252926514077341</v>
       </c>
       <c r="D78">
-        <v>0.05799180763294093</v>
+        <v>-0.005499407809220854</v>
       </c>
       <c r="E78">
-        <v>-0.007169702676382768</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.02214554392525556</v>
+      </c>
+      <c r="F78">
+        <v>0.03675403760692365</v>
+      </c>
+      <c r="G78">
+        <v>0.08866923478157324</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2037,78 +2511,108 @@
       <c r="E79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.01113561610665683</v>
+        <v>-0.0432012364888835</v>
       </c>
       <c r="C80">
-        <v>-0.01409491808103247</v>
+        <v>0.07474013757514558</v>
       </c>
       <c r="D80">
-        <v>0.153493551522935</v>
+        <v>-0.0113158315835862</v>
       </c>
       <c r="E80">
-        <v>-0.6361113810305955</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.03289647877413941</v>
+      </c>
+      <c r="F80">
+        <v>0.02868161668806754</v>
+      </c>
+      <c r="G80">
+        <v>0.3430168797060529</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.01177413275791549</v>
+        <v>-0.1394982379252403</v>
       </c>
       <c r="C81">
-        <v>-0.08402249668500121</v>
+        <v>0.09680466165423827</v>
       </c>
       <c r="D81">
-        <v>0.176849895348826</v>
+        <v>0.01527124844880449</v>
       </c>
       <c r="E81">
-        <v>-0.02500544428474155</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.03053027792135771</v>
+      </c>
+      <c r="F81">
+        <v>-0.1347146488972846</v>
+      </c>
+      <c r="G81">
+        <v>0.02356745306884171</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>-0.1271542170339396</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>0.07391850169702684</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>0.0080841044449452</v>
       </c>
       <c r="E82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.08966510598438085</v>
+      </c>
+      <c r="F82">
+        <v>-0.04301659509049502</v>
+      </c>
+      <c r="G82">
+        <v>0.0568001916088145</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.008284876925731544</v>
+        <v>-0.03634847056222092</v>
       </c>
       <c r="C83">
-        <v>-0.01930715086876527</v>
+        <v>0.03025622962500473</v>
       </c>
       <c r="D83">
-        <v>0.03799860814362801</v>
+        <v>-0.005627947937350715</v>
       </c>
       <c r="E83">
-        <v>-0.001628166475345971</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>-0.02716345038419741</v>
+      </c>
+      <c r="F83">
+        <v>0.03255294528308156</v>
+      </c>
+      <c r="G83">
+        <v>0.06013952443644292</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2122,197 +2626,269 @@
       <c r="E84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.02225989749267975</v>
+        <v>-0.2138647342713941</v>
       </c>
       <c r="C85">
-        <v>-0.1003451464254664</v>
+        <v>0.1448073302675554</v>
       </c>
       <c r="D85">
-        <v>0.2665269321087516</v>
+        <v>0.01830636464523214</v>
       </c>
       <c r="E85">
-        <v>-0.02083041142104447</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.09258657821166785</v>
+      </c>
+      <c r="F85">
+        <v>-0.1376523855162286</v>
+      </c>
+      <c r="G85">
+        <v>-0.1010400863182373</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.01051090378679611</v>
+        <v>-0.01466971023549498</v>
       </c>
       <c r="C86">
-        <v>-0.02465304468471368</v>
+        <v>0.03097618687387291</v>
       </c>
       <c r="D86">
-        <v>0.06245252762920158</v>
+        <v>-0.01234121434078577</v>
       </c>
       <c r="E86">
-        <v>0.03231836911527387</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>-0.0492012234187042</v>
+      </c>
+      <c r="F86">
+        <v>0.03070179521109146</v>
+      </c>
+      <c r="G86">
+        <v>0.1832169001592672</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.007729401967524591</v>
+        <v>-0.02248300096012213</v>
       </c>
       <c r="C87">
-        <v>0.004361417366570533</v>
+        <v>0.02428005101450719</v>
       </c>
       <c r="D87">
-        <v>0.05605874333548702</v>
+        <v>-0.01195435254560621</v>
       </c>
       <c r="E87">
-        <v>0.00630649615330041</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.08672917187698356</v>
+      </c>
+      <c r="F87">
+        <v>0.01759786155193378</v>
+      </c>
+      <c r="G87">
+        <v>0.1158421288826728</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.02882747282799651</v>
+        <v>-0.09189634050031481</v>
       </c>
       <c r="C88">
-        <v>-0.02518280190100417</v>
+        <v>0.06757936558937223</v>
       </c>
       <c r="D88">
-        <v>0.05618339431078417</v>
+        <v>-0.02266017474419293</v>
       </c>
       <c r="E88">
-        <v>-7.774148650917165e-05</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.006919885371251518</v>
+      </c>
+      <c r="F88">
+        <v>-0.01660046929127602</v>
+      </c>
+      <c r="G88">
+        <v>0.08188674197812847</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.09976526454619468</v>
+        <v>-0.2349208786894992</v>
       </c>
       <c r="C89">
-        <v>-0.405995539098248</v>
+        <v>-0.3691609499072279</v>
       </c>
       <c r="D89">
-        <v>-0.1857251437378231</v>
+        <v>-0.000303396263333726</v>
       </c>
       <c r="E89">
-        <v>-0.02244739529818705</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.01264018567678705</v>
+      </c>
+      <c r="F89">
+        <v>-0.02748622787481912</v>
+      </c>
+      <c r="G89">
+        <v>0.07106752230625694</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.07654556183187328</v>
+        <v>-0.2091126181357108</v>
       </c>
       <c r="C90">
-        <v>-0.3184370332399145</v>
+        <v>-0.3179136773649922</v>
       </c>
       <c r="D90">
-        <v>-0.1662377716111899</v>
+        <v>0.003796524503781749</v>
       </c>
       <c r="E90">
-        <v>0.02177681565529794</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.001062136488442213</v>
+      </c>
+      <c r="F90">
+        <v>-0.05358620736292414</v>
+      </c>
+      <c r="G90">
+        <v>0.03778404607550071</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.01324982210694995</v>
+        <v>-0.1874683844639526</v>
       </c>
       <c r="C91">
-        <v>-0.1203089632071341</v>
+        <v>0.1384434054062959</v>
       </c>
       <c r="D91">
-        <v>0.2213235479481072</v>
+        <v>0.02275907881272328</v>
       </c>
       <c r="E91">
-        <v>-0.02521632826708265</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.05697303511016248</v>
+      </c>
+      <c r="F91">
+        <v>-0.1488625695483034</v>
+      </c>
+      <c r="G91">
+        <v>0.01558046368505104</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.04476393916073396</v>
+        <v>-0.2011821768870903</v>
       </c>
       <c r="C92">
-        <v>-0.3252781050606128</v>
+        <v>-0.254353260935612</v>
       </c>
       <c r="D92">
-        <v>-0.06102210156151197</v>
+        <v>0.03730084603098708</v>
       </c>
       <c r="E92">
-        <v>0.03066714551320449</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>-0.041016903610813</v>
+      </c>
+      <c r="F92">
+        <v>-0.05451192251761954</v>
+      </c>
+      <c r="G92">
+        <v>0.1306806770614714</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.0752872552554928</v>
+        <v>-0.2334360799148617</v>
       </c>
       <c r="C93">
-        <v>-0.3389601821056106</v>
+        <v>-0.3131885913857418</v>
       </c>
       <c r="D93">
-        <v>-0.141626174430722</v>
+        <v>0.01061113431102336</v>
       </c>
       <c r="E93">
-        <v>0.02907787045205918</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.01018462683342842</v>
+      </c>
+      <c r="F93">
+        <v>-0.03893228191992419</v>
+      </c>
+      <c r="G93">
+        <v>0.04832455753842323</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.04175576597839258</v>
+        <v>-0.3157350687543438</v>
       </c>
       <c r="C94">
-        <v>-0.1551769358359473</v>
+        <v>0.1750589429678371</v>
       </c>
       <c r="D94">
-        <v>0.2603166781091194</v>
+        <v>0.0176545405943028</v>
       </c>
       <c r="E94">
-        <v>0.009834067665869322</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.1676325227663748</v>
+      </c>
+      <c r="F94">
+        <v>-0.4852596815350659</v>
+      </c>
+      <c r="G94">
+        <v>-0.3774733025089159</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.002753239154631666</v>
+        <v>-0.09989175358415732</v>
       </c>
       <c r="C95">
-        <v>-0.02773599955480947</v>
+        <v>0.08728964973248472</v>
       </c>
       <c r="D95">
-        <v>0.1203792102416443</v>
+        <v>0.01029354828733517</v>
       </c>
       <c r="E95">
-        <v>0.1302824966572667</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>-0.06430179631961301</v>
+      </c>
+      <c r="F95">
+        <v>0.2075494276993232</v>
+      </c>
+      <c r="G95">
+        <v>-0.08789073187240745</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,10 +2902,16 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2343,27 +2925,39 @@
       <c r="E97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.02095186237718637</v>
+        <v>-0.1970542896143068</v>
       </c>
       <c r="C98">
-        <v>-0.1465337111415949</v>
+        <v>0.04671985259186158</v>
       </c>
       <c r="D98">
-        <v>0.1583855709417396</v>
+        <v>0.01359753142062231</v>
       </c>
       <c r="E98">
-        <v>-0.008605708084557911</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.05905367963799926</v>
+      </c>
+      <c r="F98">
+        <v>0.2419434996510631</v>
+      </c>
+      <c r="G98">
+        <v>-0.01017377582011261</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +2971,16 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,73 +2994,103 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.009256264539578367</v>
+        <v>-0.009396760777187691</v>
       </c>
       <c r="C101">
-        <v>-0.01443524114716001</v>
+        <v>0.02326251597904163</v>
       </c>
       <c r="D101">
-        <v>0.0192326932749148</v>
+        <v>-0.008776196429624182</v>
       </c>
       <c r="E101">
-        <v>-0.004893172253919483</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>-0.001644500407361953</v>
+      </c>
+      <c r="F101">
+        <v>-0.01869136303669206</v>
+      </c>
+      <c r="G101">
+        <v>0.09164073850239113</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.01924014386066675</v>
+        <v>-0.1168920061854059</v>
       </c>
       <c r="C102">
-        <v>-0.05299245451119192</v>
+        <v>0.08404289135918337</v>
       </c>
       <c r="D102">
-        <v>0.1247019491146685</v>
+        <v>-0.0006041567083037734</v>
       </c>
       <c r="E102">
-        <v>-0.01361590364437532</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>0.0343659294711014</v>
+      </c>
+      <c r="F102">
+        <v>-0.04124877970472111</v>
+      </c>
+      <c r="G102">
+        <v>0.004394402672573006</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B103">
-        <v>-0.0008075503632663151</v>
+        <v>-0.001154355342050369</v>
       </c>
       <c r="C103">
-        <v>-0.002375434629392178</v>
+        <v>0.001923331291798202</v>
       </c>
       <c r="D103">
-        <v>0.008847139788847993</v>
+        <v>-0.0002164667175384681</v>
       </c>
       <c r="E103">
-        <v>0.004761640197778982</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>-0.003069106509122863</v>
+      </c>
+      <c r="F103">
+        <v>-0.004450233050057532</v>
+      </c>
+      <c r="G103">
+        <v>0.004709386101513557</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>-0.9672521477142306</v>
+        <v>-0.02114691398497499</v>
       </c>
       <c r="C104">
-        <v>0.2132891448377733</v>
+        <v>-0.02866474145042306</v>
       </c>
       <c r="D104">
-        <v>-0.03275659800451656</v>
+        <v>-0.9877724339625489</v>
       </c>
       <c r="E104">
-        <v>-0.03651124401971841</v>
+        <v>0.04588840275346394</v>
+      </c>
+      <c r="F104">
+        <v>-0.03684677240544024</v>
+      </c>
+      <c r="G104">
+        <v>-0.03350366128925494</v>
       </c>
     </row>
   </sheetData>
